--- a/data/monita_database_processed.xlsx
+++ b/data/monita_database_processed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="517">
   <si>
     <t>ID</t>
   </si>
@@ -106,9 +106,21 @@
     <t>2263</t>
   </si>
   <si>
+    <t>2727</t>
+  </si>
+  <si>
+    <t>2725</t>
+  </si>
+  <si>
+    <t>2726</t>
+  </si>
+  <si>
     <t>2561</t>
   </si>
   <si>
+    <t>2728</t>
+  </si>
+  <si>
     <t>231</t>
   </si>
   <si>
@@ -559,6 +571,9 @@
     <t>1311</t>
   </si>
   <si>
+    <t>2724</t>
+  </si>
+  <si>
     <t>1831</t>
   </si>
   <si>
@@ -601,15 +616,15 @@
     <t>1627</t>
   </si>
   <si>
+    <t>1668</t>
+  </si>
+  <si>
     <t>1612</t>
   </si>
   <si>
     <t>1657</t>
   </si>
   <si>
-    <t>1668</t>
-  </si>
-  <si>
     <t>1702</t>
   </si>
   <si>
@@ -910,6 +925,12 @@
     <t>Secret instructions of the Jesuits. Printed verbatim from the London copy of 1725. To which is prefixed an historical essay; with an appendix of notes, by the editor of the Protestant</t>
   </si>
   <si>
+    <t>Monita Privata Societatis Jesu. Edita opera ac studio Pacifici A Lapide. Una cum Prooemio, Notis ac Epilogo eiusdem, in Homo politicus</t>
+  </si>
+  <si>
+    <t>Monita secreta</t>
+  </si>
+  <si>
     <t>Instructions secrètes des Jésuites</t>
   </si>
   <si>
@@ -1324,19 +1345,19 @@
     <t>Forma del governo giesuitico con una istrutione et avviso a' potentati del modo con il quale si governano li Giesuiti per ridurre la loro Compagnia ad una perfetta monarchia</t>
   </si>
   <si>
-    <t>prawdziwa</t>
-  </si>
-  <si>
-    <t>domniemana</t>
-  </si>
-  <si>
-    <t>fałszywa</t>
-  </si>
-  <si>
-    <t>nieznana</t>
-  </si>
-  <si>
-    <t>fikcyjna</t>
+    <t>true</t>
+  </si>
+  <si>
+    <t>alleged</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>fictitious</t>
   </si>
   <si>
     <t>https://www.geonames.org/2872155</t>
@@ -1369,6 +1390,9 @@
     <t>https://www.geonames.org/5102922</t>
   </si>
   <si>
+    <t>https://www.geonames.org/524894</t>
+  </si>
+  <si>
     <t>https://www.geonames.org/2988507</t>
   </si>
   <si>
@@ -1496,6 +1520,9 @@
   </si>
   <si>
     <t>https://www.geonames.org/3179866</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/6458783/geneva.html</t>
   </si>
   <si>
     <t>https://www.geonames.org/3090436</t>
@@ -1908,7 +1935,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M170"/>
+  <dimension ref="A1:M175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1960,31 +1987,31 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D2" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="H2" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I2">
         <v>1831</v>
       </c>
       <c r="J2" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K2" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -1998,31 +2025,31 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D3" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="H3" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I3">
         <v>1676</v>
       </c>
       <c r="J3" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K3" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -2036,28 +2063,28 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D4" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="H4" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I4">
         <v>1669</v>
       </c>
       <c r="J4" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K4" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -2071,28 +2098,28 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D5" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="H5" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I5">
         <v>1759</v>
       </c>
       <c r="J5" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K5" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -2106,31 +2133,31 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D6" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="H6" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I6">
         <v>1760</v>
       </c>
       <c r="J6" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K6" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -2144,28 +2171,28 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="H7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I7">
         <v>1760</v>
       </c>
       <c r="J7" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K7" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -2179,28 +2206,28 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D8" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="H8" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I8">
         <v>1886</v>
       </c>
       <c r="J8" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K8" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -2214,31 +2241,31 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D9" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="H9" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I9">
         <v>1825</v>
       </c>
       <c r="J9" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K9" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -2252,31 +2279,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C10" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D10" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="H10" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I10">
         <v>1900</v>
       </c>
       <c r="J10" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K10" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -2290,31 +2317,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C11" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D11" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="H11" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I11">
         <v>1888</v>
       </c>
       <c r="J11" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K11" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -2328,31 +2355,31 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C12" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D12" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="H12" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I12">
         <v>1894</v>
       </c>
       <c r="J12" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K12" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -2366,31 +2393,31 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C13" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D13" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="H13" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I13">
         <v>1897</v>
       </c>
       <c r="J13" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K13" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -2404,22 +2431,25 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C14" t="s">
-        <v>293</v>
+        <v>298</v>
+      </c>
+      <c r="D14" t="s">
+        <v>446</v>
       </c>
       <c r="H14" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I14">
         <v>1762</v>
       </c>
       <c r="J14" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K14" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -2433,25 +2463,25 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C15" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D15" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="H15" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I15">
         <v>1620</v>
       </c>
       <c r="J15" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K15" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L15" t="b">
         <v>1</v>
@@ -2465,31 +2495,31 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C16" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D16" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="H16" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I16">
         <v>1868</v>
       </c>
       <c r="J16" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K16" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L16" t="b">
         <v>1</v>
@@ -2503,31 +2533,31 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C17" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D17" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="H17" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I17">
         <v>1627</v>
       </c>
       <c r="J17" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K17" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -2541,31 +2571,31 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C18" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D18" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H18" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I18">
         <v>1831</v>
       </c>
       <c r="J18" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K18" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -2579,34 +2609,28 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C19" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D19" t="s">
-        <v>436</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="H19" t="s">
-        <v>503</v>
+        <v>444</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>502</v>
       </c>
       <c r="I19">
-        <v>1868</v>
+        <v>1668</v>
       </c>
       <c r="J19" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K19" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="b">
         <v>0</v>
@@ -2617,34 +2641,37 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C20" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D20" t="s">
-        <v>437</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>494</v>
+        <v>443</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>458</v>
       </c>
       <c r="H20" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I20">
-        <v>1612</v>
+        <v>1868</v>
       </c>
       <c r="J20" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K20" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2652,31 +2679,34 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C21" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D21" t="s">
-        <v>439</v>
-      </c>
-      <c r="H21" t="s">
-        <v>503</v>
+        <v>443</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>458</v>
       </c>
       <c r="I21">
-        <v>1657</v>
+        <v>1868</v>
       </c>
       <c r="J21" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K21" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2684,28 +2714,31 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C22" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D22" t="s">
-        <v>437</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>452</v>
+        <v>443</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="H22" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I22">
-        <v>1668</v>
+        <v>1868</v>
       </c>
       <c r="J22" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K22" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -2719,25 +2752,28 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C23" t="s">
-        <v>301</v>
+        <v>306</v>
+      </c>
+      <c r="D23" t="s">
+        <v>446</v>
       </c>
       <c r="I23">
-        <v>1702</v>
+        <v>1612</v>
       </c>
       <c r="J23" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K23" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2745,22 +2781,31 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C24" t="s">
-        <v>302</v>
+        <v>306</v>
+      </c>
+      <c r="D24" t="s">
+        <v>444</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="H24" t="s">
+        <v>512</v>
       </c>
       <c r="I24">
-        <v>1702</v>
+        <v>1612</v>
       </c>
       <c r="J24" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K24" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="b">
         <v>0</v>
@@ -2771,22 +2816,28 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C25" t="s">
-        <v>303</v>
+        <v>306</v>
+      </c>
+      <c r="D25" t="s">
+        <v>446</v>
+      </c>
+      <c r="H25" t="s">
+        <v>512</v>
       </c>
       <c r="I25">
-        <v>1751</v>
+        <v>1657</v>
       </c>
       <c r="J25" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K25" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="b">
         <v>0</v>
@@ -2800,34 +2851,31 @@
         <v>200</v>
       </c>
       <c r="C26" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D26" t="s">
-        <v>436</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>452</v>
+        <v>444</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>460</v>
       </c>
       <c r="H26" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I26">
-        <v>1761</v>
+        <v>1668</v>
       </c>
       <c r="J26" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K26" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
       </c>
       <c r="M26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2835,31 +2883,22 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C27" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D27" t="s">
-        <v>436</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="H27" t="s">
-        <v>503</v>
+        <v>446</v>
       </c>
       <c r="I27">
-        <v>1824</v>
+        <v>1702</v>
       </c>
       <c r="J27" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K27" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -2873,37 +2912,28 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="C28" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D28" t="s">
-        <v>436</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="H28" t="s">
-        <v>503</v>
+        <v>446</v>
       </c>
       <c r="I28">
-        <v>1868</v>
+        <v>1702</v>
       </c>
       <c r="J28" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K28" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
       </c>
       <c r="M28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2911,37 +2941,28 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C29" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D29" t="s">
-        <v>436</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="H29" t="s">
-        <v>503</v>
+        <v>446</v>
       </c>
       <c r="I29">
-        <v>1901</v>
+        <v>1751</v>
       </c>
       <c r="J29" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K29" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
       </c>
       <c r="M29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2949,31 +2970,37 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C30" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D30" t="s">
-        <v>438</v>
+        <v>443</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>460</v>
       </c>
       <c r="H30" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I30">
-        <v>1612</v>
+        <v>1761</v>
       </c>
       <c r="J30" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K30" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
       </c>
       <c r="M30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2981,31 +3008,31 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="C31" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D31" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H31" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I31">
-        <v>1759</v>
+        <v>1824</v>
       </c>
       <c r="J31" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K31" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -3019,31 +3046,31 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C32" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D32" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="H32" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I32">
-        <v>1845</v>
+        <v>1868</v>
       </c>
       <c r="J32" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K32" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -3057,31 +3084,31 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C33" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D33" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="H33" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I33">
-        <v>1881</v>
+        <v>1901</v>
       </c>
       <c r="J33" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K33" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -3095,37 +3122,31 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C34" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D34" t="s">
-        <v>436</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="H34" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I34">
-        <v>1901</v>
+        <v>1612</v>
       </c>
       <c r="J34" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K34" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
       </c>
       <c r="M34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -3133,31 +3154,31 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C35" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D35" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="H35" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I35">
-        <v>1849</v>
+        <v>1759</v>
       </c>
       <c r="J35" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K35" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
@@ -3171,37 +3192,37 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C36" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D36" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="H36" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I36">
-        <v>1671</v>
+        <v>1845</v>
       </c>
       <c r="J36" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K36" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
       </c>
       <c r="M36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -3209,31 +3230,37 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C37" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D37" t="s">
-        <v>439</v>
+        <v>443</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="H37" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I37">
-        <v>1740</v>
+        <v>1881</v>
       </c>
       <c r="J37" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K37" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
       </c>
       <c r="M37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -3241,31 +3268,31 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="C38" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D38" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="H38" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I38">
-        <v>1825</v>
+        <v>1901</v>
       </c>
       <c r="J38" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K38" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -3279,34 +3306,37 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C39" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D39" t="s">
-        <v>437</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>451</v>
+        <v>443</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="H39" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I39">
-        <v>1826</v>
+        <v>1849</v>
       </c>
       <c r="J39" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K39" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
       </c>
       <c r="M39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -3314,37 +3344,37 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C40" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D40" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="H40" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I40">
-        <v>1838</v>
+        <v>1671</v>
       </c>
       <c r="J40" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K40" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
       </c>
       <c r="M40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -3352,31 +3382,25 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C41" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D41" t="s">
-        <v>436</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="H41" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I41">
-        <v>1845</v>
+        <v>1740</v>
       </c>
       <c r="J41" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K41" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
@@ -3390,37 +3414,37 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="C42" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D42" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H42" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I42">
-        <v>1845</v>
+        <v>1825</v>
       </c>
       <c r="J42" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K42" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
       </c>
       <c r="M42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -3428,37 +3452,34 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C43" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D43" t="s">
-        <v>436</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>460</v>
+        <v>444</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="H43" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I43">
-        <v>1845</v>
+        <v>1826</v>
       </c>
       <c r="J43" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K43" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
       </c>
       <c r="M43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3466,31 +3487,31 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C44" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D44" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="H44" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I44">
-        <v>1846</v>
+        <v>1838</v>
       </c>
       <c r="J44" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K44" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
@@ -3504,31 +3525,31 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C45" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D45" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="H45" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I45">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="J45" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K45" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
@@ -3542,37 +3563,37 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C46" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D46" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="H46" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I46">
-        <v>1862</v>
+        <v>1845</v>
       </c>
       <c r="J46" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K46" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
       </c>
       <c r="M46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3580,31 +3601,31 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C47" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D47" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="H47" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I47">
-        <v>1863</v>
+        <v>1845</v>
       </c>
       <c r="J47" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K47" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
@@ -3618,31 +3639,31 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C48" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D48" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="H48" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I48">
-        <v>1869</v>
+        <v>1846</v>
       </c>
       <c r="J48" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K48" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
@@ -3656,37 +3677,37 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C49" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D49" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="H49" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I49">
-        <v>1870</v>
+        <v>1847</v>
       </c>
       <c r="J49" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K49" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
       </c>
       <c r="M49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3694,31 +3715,31 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C50" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D50" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H50" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I50">
-        <v>1874</v>
+        <v>1862</v>
       </c>
       <c r="J50" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K50" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
@@ -3732,22 +3753,31 @@
         <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C51" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D51" t="s">
-        <v>439</v>
+        <v>443</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H51" t="s">
+        <v>512</v>
       </c>
       <c r="I51">
-        <v>1880</v>
+        <v>1863</v>
       </c>
       <c r="J51" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K51" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
@@ -3761,31 +3791,31 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="C52" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D52" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="H52" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I52">
-        <v>1881</v>
+        <v>1869</v>
       </c>
       <c r="J52" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K52" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
@@ -3799,31 +3829,31 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C53" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D53" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H53" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I53">
-        <v>1890</v>
+        <v>1870</v>
       </c>
       <c r="J53" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K53" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
@@ -3837,31 +3867,31 @@
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C54" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D54" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="H54" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I54">
-        <v>1893</v>
+        <v>1874</v>
       </c>
       <c r="J54" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K54" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
@@ -3875,22 +3905,22 @@
         <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="C55" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D55" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="I55">
-        <v>1897</v>
+        <v>1880</v>
       </c>
       <c r="J55" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K55" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
@@ -3904,37 +3934,37 @@
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C56" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D56" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H56" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I56">
-        <v>1905</v>
+        <v>1881</v>
       </c>
       <c r="J56" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K56" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L56" t="b">
         <v>0</v>
       </c>
       <c r="M56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3942,31 +3972,37 @@
         <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C57" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D57" t="s">
-        <v>439</v>
+        <v>443</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>471</v>
       </c>
       <c r="H57" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I57">
-        <v>1617</v>
+        <v>1890</v>
       </c>
       <c r="J57" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K57" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3974,25 +4010,31 @@
         <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C58" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D58" t="s">
-        <v>439</v>
+        <v>443</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>472</v>
       </c>
       <c r="H58" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I58">
-        <v>1633</v>
+        <v>1893</v>
       </c>
       <c r="J58" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K58" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
@@ -4006,37 +4048,28 @@
         <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="C59" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D59" t="s">
-        <v>436</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="H59" t="s">
-        <v>503</v>
+        <v>446</v>
       </c>
       <c r="I59">
-        <v>1634</v>
+        <v>1897</v>
       </c>
       <c r="J59" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K59" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L59" t="b">
         <v>0</v>
       </c>
       <c r="M59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -4044,31 +4077,37 @@
         <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C60" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D60" t="s">
-        <v>439</v>
+        <v>443</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>473</v>
       </c>
       <c r="H60" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I60">
-        <v>1634</v>
+        <v>1905</v>
       </c>
       <c r="J60" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K60" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L60" t="b">
         <v>0</v>
       </c>
       <c r="M60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -4076,34 +4115,31 @@
         <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C61" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D61" t="s">
-        <v>437</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>495</v>
+        <v>446</v>
       </c>
       <c r="H61" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I61">
-        <v>1635</v>
+        <v>1617</v>
       </c>
       <c r="J61" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K61" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -4111,31 +4147,25 @@
         <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C62" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D62" t="s">
-        <v>436</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="H62" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I62">
-        <v>1641</v>
+        <v>1633</v>
       </c>
       <c r="J62" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K62" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L62" t="b">
         <v>0</v>
@@ -4149,31 +4179,37 @@
         <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C63" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D63" t="s">
-        <v>439</v>
+        <v>443</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>474</v>
       </c>
       <c r="H63" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I63">
-        <v>1643</v>
+        <v>1634</v>
       </c>
       <c r="J63" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K63" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L63" t="b">
         <v>0</v>
       </c>
       <c r="M63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -4181,28 +4217,31 @@
         <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="C64" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D64" t="s">
-        <v>439</v>
+        <v>446</v>
+      </c>
+      <c r="H64" t="s">
+        <v>512</v>
       </c>
       <c r="I64">
-        <v>1657</v>
+        <v>1634</v>
       </c>
       <c r="J64" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K64" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -4210,28 +4249,34 @@
         <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="C65" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D65" t="s">
-        <v>439</v>
+        <v>444</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H65" t="s">
+        <v>511</v>
       </c>
       <c r="I65">
-        <v>1657</v>
+        <v>1635</v>
       </c>
       <c r="J65" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K65" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -4239,31 +4284,31 @@
         <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C66" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D66" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="H66" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I66">
-        <v>1661</v>
+        <v>1641</v>
       </c>
       <c r="J66" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K66" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L66" t="b">
         <v>0</v>
@@ -4277,31 +4322,31 @@
         <v>78</v>
       </c>
       <c r="B67" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C67" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="D67" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="H67" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I67">
-        <v>1662</v>
+        <v>1643</v>
       </c>
       <c r="J67" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="K67" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -4309,25 +4354,22 @@
         <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="C68" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D68" t="s">
-        <v>439</v>
-      </c>
-      <c r="H68" t="s">
-        <v>503</v>
+        <v>446</v>
       </c>
       <c r="I68">
-        <v>1666</v>
+        <v>1657</v>
       </c>
       <c r="J68" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K68" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L68" t="b">
         <v>1</v>
@@ -4341,31 +4383,28 @@
         <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="C69" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D69" t="s">
-        <v>439</v>
-      </c>
-      <c r="H69" t="s">
-        <v>502</v>
+        <v>446</v>
       </c>
       <c r="I69">
-        <v>1669</v>
+        <v>1657</v>
       </c>
       <c r="J69" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K69" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -4373,37 +4412,37 @@
         <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C70" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D70" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="H70" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I70">
-        <v>1669</v>
+        <v>1661</v>
       </c>
       <c r="J70" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K70" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L70" t="b">
         <v>0</v>
       </c>
       <c r="M70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4411,28 +4450,28 @@
         <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C71" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D71" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="H71" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I71">
-        <v>1670</v>
+        <v>1662</v>
       </c>
       <c r="J71" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="K71" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" t="b">
         <v>0</v>
@@ -4443,34 +4482,28 @@
         <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C72" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D72" t="s">
-        <v>436</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="H72" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I72">
-        <v>1678</v>
+        <v>1666</v>
       </c>
       <c r="J72" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K72" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" t="b">
         <v>0</v>
@@ -4481,37 +4514,31 @@
         <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C73" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D73" t="s">
-        <v>436</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="H73" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I73">
-        <v>1679</v>
+        <v>1669</v>
       </c>
       <c r="J73" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K73" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L73" t="b">
         <v>0</v>
       </c>
       <c r="M73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -4519,31 +4546,31 @@
         <v>85</v>
       </c>
       <c r="B74" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C74" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D74" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="H74" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I74">
-        <v>1679</v>
+        <v>1669</v>
       </c>
       <c r="J74" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K74" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L74" t="b">
         <v>0</v>
@@ -4557,31 +4584,25 @@
         <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C75" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D75" t="s">
-        <v>436</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="H75" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I75">
-        <v>1682</v>
+        <v>1670</v>
       </c>
       <c r="J75" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K75" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L75" t="b">
         <v>0</v>
@@ -4595,31 +4616,31 @@
         <v>87</v>
       </c>
       <c r="B76" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C76" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D76" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="H76" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I76">
-        <v>1704</v>
+        <v>1678</v>
       </c>
       <c r="J76" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K76" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L76" t="b">
         <v>0</v>
@@ -4633,37 +4654,37 @@
         <v>88</v>
       </c>
       <c r="B77" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C77" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="D77" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="H77" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I77">
-        <v>1717</v>
+        <v>1679</v>
       </c>
       <c r="J77" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K77" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L77" t="b">
         <v>0</v>
       </c>
       <c r="M77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4671,37 +4692,37 @@
         <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C78" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D78" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H78" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I78">
-        <v>1718</v>
+        <v>1679</v>
       </c>
       <c r="J78" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K78" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L78" t="b">
         <v>0</v>
       </c>
       <c r="M78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4709,31 +4730,31 @@
         <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C79" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D79" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="H79" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I79">
-        <v>1723</v>
+        <v>1682</v>
       </c>
       <c r="J79" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K79" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L79" t="b">
         <v>0</v>
@@ -4747,37 +4768,37 @@
         <v>91</v>
       </c>
       <c r="B80" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C80" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D80" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="H80" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I80">
-        <v>1723</v>
+        <v>1704</v>
       </c>
       <c r="J80" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K80" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L80" t="b">
         <v>0</v>
       </c>
       <c r="M80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4785,31 +4806,37 @@
         <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C81" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="D81" t="s">
-        <v>439</v>
+        <v>443</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>475</v>
       </c>
       <c r="H81" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I81">
-        <v>1727</v>
+        <v>1717</v>
       </c>
       <c r="J81" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K81" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L81" t="b">
         <v>0</v>
       </c>
       <c r="M81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4817,31 +4844,31 @@
         <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C82" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D82" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
       <c r="H82" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I82">
-        <v>1727</v>
+        <v>1718</v>
       </c>
       <c r="J82" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K82" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L82" t="b">
         <v>0</v>
@@ -4855,28 +4882,37 @@
         <v>94</v>
       </c>
       <c r="B83" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C83" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D83" t="s">
-        <v>439</v>
+        <v>443</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="H83" t="s">
+        <v>512</v>
       </c>
       <c r="I83">
-        <v>1729</v>
+        <v>1723</v>
       </c>
       <c r="J83" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K83" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L83" t="b">
         <v>0</v>
       </c>
       <c r="M83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4884,31 +4920,31 @@
         <v>95</v>
       </c>
       <c r="B84" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C84" t="s">
-        <v>309</v>
+        <v>363</v>
       </c>
       <c r="D84" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="H84" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I84">
-        <v>1746</v>
+        <v>1723</v>
       </c>
       <c r="J84" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K84" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L84" t="b">
         <v>0</v>
@@ -4922,37 +4958,31 @@
         <v>96</v>
       </c>
       <c r="B85" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="C85" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="D85" t="s">
-        <v>436</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="H85" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I85">
-        <v>1761</v>
+        <v>1727</v>
       </c>
       <c r="J85" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K85" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L85" t="b">
         <v>0</v>
       </c>
       <c r="M85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4960,31 +4990,37 @@
         <v>97</v>
       </c>
       <c r="B86" t="s">
-        <v>191</v>
+        <v>246</v>
       </c>
       <c r="C86" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D86" t="s">
-        <v>439</v>
+        <v>443</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>449</v>
       </c>
       <c r="H86" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I86">
-        <v>1762</v>
+        <v>1727</v>
       </c>
       <c r="J86" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K86" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L86" t="b">
         <v>0</v>
       </c>
       <c r="M86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4992,28 +5028,22 @@
         <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>42</v>
+        <v>247</v>
       </c>
       <c r="C87" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="D87" t="s">
-        <v>440</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="H87" t="s">
-        <v>502</v>
+        <v>446</v>
       </c>
       <c r="I87">
-        <v>1764</v>
+        <v>1729</v>
       </c>
       <c r="J87" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K87" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L87" t="b">
         <v>0</v>
@@ -5027,28 +5057,31 @@
         <v>99</v>
       </c>
       <c r="B88" t="s">
-        <v>84</v>
+        <v>248</v>
       </c>
       <c r="C88" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="D88" t="s">
-        <v>438</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>496</v>
+        <v>443</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>462</v>
       </c>
       <c r="H88" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I88">
-        <v>1782</v>
+        <v>1746</v>
       </c>
       <c r="J88" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K88" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L88" t="b">
         <v>0</v>
@@ -5062,34 +5095,34 @@
         <v>100</v>
       </c>
       <c r="B89" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="C89" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="D89" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="H89" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I89">
-        <v>1786</v>
+        <v>1761</v>
       </c>
       <c r="J89" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K89" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M89" t="b">
         <v>1</v>
@@ -5100,31 +5133,25 @@
         <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>196</v>
       </c>
       <c r="C90" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D90" t="s">
-        <v>436</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="H90" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I90">
-        <v>1800</v>
+        <v>1762</v>
       </c>
       <c r="J90" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K90" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L90" t="b">
         <v>0</v>
@@ -5138,37 +5165,34 @@
         <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="C91" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D91" t="s">
-        <v>436</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>472</v>
+        <v>447</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>487</v>
       </c>
       <c r="H91" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I91">
-        <v>1814</v>
+        <v>1764</v>
       </c>
       <c r="J91" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K91" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L91" t="b">
         <v>0</v>
       </c>
       <c r="M91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -5176,37 +5200,34 @@
         <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C92" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D92" t="s">
-        <v>436</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>473</v>
+        <v>445</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>505</v>
       </c>
       <c r="H92" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I92">
-        <v>1815</v>
+        <v>1782</v>
       </c>
       <c r="J92" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K92" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L92" t="b">
         <v>0</v>
       </c>
       <c r="M92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -5214,34 +5235,34 @@
         <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="C93" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D93" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>451</v>
+        <v>479</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>451</v>
+        <v>479</v>
       </c>
       <c r="H93" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I93">
-        <v>1824</v>
+        <v>1786</v>
       </c>
       <c r="J93" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K93" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" t="b">
         <v>1</v>
@@ -5252,37 +5273,37 @@
         <v>105</v>
       </c>
       <c r="B94" t="s">
-        <v>201</v>
+        <v>38</v>
       </c>
       <c r="C94" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D94" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="H94" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I94">
-        <v>1824</v>
+        <v>1800</v>
       </c>
       <c r="J94" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K94" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L94" t="b">
         <v>0</v>
       </c>
       <c r="M94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -5290,37 +5311,37 @@
         <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>177</v>
+        <v>249</v>
       </c>
       <c r="C95" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D95" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="H95" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I95">
-        <v>1825</v>
+        <v>1814</v>
       </c>
       <c r="J95" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K95" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L95" t="b">
         <v>0</v>
       </c>
       <c r="M95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -5328,37 +5349,37 @@
         <v>107</v>
       </c>
       <c r="B96" t="s">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D96" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>444</v>
+        <v>481</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>444</v>
+        <v>481</v>
       </c>
       <c r="H96" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I96">
-        <v>1826</v>
+        <v>1815</v>
       </c>
       <c r="J96" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K96" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L96" t="b">
         <v>0</v>
       </c>
       <c r="M96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -5366,37 +5387,37 @@
         <v>108</v>
       </c>
       <c r="B97" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C97" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D97" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="H97" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I97">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="J97" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K97" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L97" t="b">
         <v>0</v>
       </c>
       <c r="M97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -5404,31 +5425,31 @@
         <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="C98" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D98" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="H98" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I98">
-        <v>1827</v>
+        <v>1824</v>
       </c>
       <c r="J98" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K98" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L98" t="b">
         <v>0</v>
@@ -5442,13 +5463,13 @@
         <v>110</v>
       </c>
       <c r="B99" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
       <c r="C99" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D99" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>451</v>
@@ -5457,16 +5478,16 @@
         <v>451</v>
       </c>
       <c r="H99" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I99">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="J99" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K99" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L99" t="b">
         <v>0</v>
@@ -5480,31 +5501,31 @@
         <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="C100" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D100" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H100" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I100">
-        <v>1831</v>
+        <v>1826</v>
       </c>
       <c r="J100" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K100" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L100" t="b">
         <v>0</v>
@@ -5518,37 +5539,37 @@
         <v>112</v>
       </c>
       <c r="B101" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="C101" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D101" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="H101" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I101">
-        <v>1835</v>
+        <v>1826</v>
       </c>
       <c r="J101" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K101" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L101" t="b">
         <v>0</v>
       </c>
       <c r="M101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -5556,31 +5577,31 @@
         <v>113</v>
       </c>
       <c r="B102" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C102" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D102" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="H102" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I102">
-        <v>1835</v>
+        <v>1827</v>
       </c>
       <c r="J102" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K102" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L102" t="b">
         <v>0</v>
@@ -5594,37 +5615,37 @@
         <v>114</v>
       </c>
       <c r="B103" t="s">
-        <v>36</v>
+        <v>251</v>
       </c>
       <c r="C103" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D103" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H103" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I103">
-        <v>1841</v>
+        <v>1828</v>
       </c>
       <c r="J103" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K103" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L103" t="b">
         <v>0</v>
       </c>
       <c r="M103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5632,37 +5653,37 @@
         <v>115</v>
       </c>
       <c r="B104" t="s">
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="C104" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D104" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="H104" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I104">
-        <v>1844</v>
+        <v>1831</v>
       </c>
       <c r="J104" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K104" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L104" t="b">
         <v>0</v>
       </c>
       <c r="M104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5670,37 +5691,37 @@
         <v>116</v>
       </c>
       <c r="B105" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="C105" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D105" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="H105" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I105">
-        <v>1845</v>
+        <v>1835</v>
       </c>
       <c r="J105" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K105" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L105" t="b">
         <v>0</v>
       </c>
       <c r="M105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5708,31 +5729,31 @@
         <v>117</v>
       </c>
       <c r="B106" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="C106" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D106" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="H106" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I106">
-        <v>1845</v>
+        <v>1835</v>
       </c>
       <c r="J106" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K106" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L106" t="b">
         <v>0</v>
@@ -5746,31 +5767,31 @@
         <v>118</v>
       </c>
       <c r="B107" t="s">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="C107" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D107" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="H107" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I107">
-        <v>1847</v>
+        <v>1841</v>
       </c>
       <c r="J107" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K107" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L107" t="b">
         <v>0</v>
@@ -5784,31 +5805,31 @@
         <v>119</v>
       </c>
       <c r="B108" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C108" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D108" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="H108" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I108">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="J108" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K108" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L108" t="b">
         <v>0</v>
@@ -5822,31 +5843,31 @@
         <v>120</v>
       </c>
       <c r="B109" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="C109" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D109" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="H109" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I109">
-        <v>1848</v>
+        <v>1845</v>
       </c>
       <c r="J109" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K109" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L109" t="b">
         <v>0</v>
@@ -5860,31 +5881,31 @@
         <v>121</v>
       </c>
       <c r="B110" t="s">
-        <v>23</v>
+        <v>209</v>
       </c>
       <c r="C110" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D110" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="H110" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I110">
-        <v>1850</v>
+        <v>1845</v>
       </c>
       <c r="J110" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K110" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L110" t="b">
         <v>0</v>
@@ -5898,37 +5919,37 @@
         <v>122</v>
       </c>
       <c r="B111" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="C111" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D111" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="H111" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I111">
-        <v>1851</v>
+        <v>1847</v>
       </c>
       <c r="J111" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K111" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L111" t="b">
         <v>0</v>
       </c>
       <c r="M111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5936,31 +5957,31 @@
         <v>123</v>
       </c>
       <c r="B112" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C112" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D112" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="H112" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I112">
-        <v>1853</v>
+        <v>1848</v>
       </c>
       <c r="J112" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K112" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L112" t="b">
         <v>0</v>
@@ -5974,31 +5995,31 @@
         <v>124</v>
       </c>
       <c r="B113" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C113" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D113" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="H113" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I113">
-        <v>1857</v>
+        <v>1848</v>
       </c>
       <c r="J113" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K113" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L113" t="b">
         <v>0</v>
@@ -6012,31 +6033,31 @@
         <v>125</v>
       </c>
       <c r="B114" t="s">
-        <v>252</v>
+        <v>23</v>
       </c>
       <c r="C114" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D114" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="H114" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I114">
-        <v>1858</v>
+        <v>1850</v>
       </c>
       <c r="J114" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K114" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L114" t="b">
         <v>0</v>
@@ -6050,37 +6071,37 @@
         <v>126</v>
       </c>
       <c r="B115" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="C115" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D115" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="H115" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I115">
-        <v>1859</v>
+        <v>1851</v>
       </c>
       <c r="J115" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K115" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L115" t="b">
         <v>0</v>
       </c>
       <c r="M115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -6088,37 +6109,37 @@
         <v>127</v>
       </c>
       <c r="B116" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C116" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D116" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="H116" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I116">
-        <v>1859</v>
+        <v>1853</v>
       </c>
       <c r="J116" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K116" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L116" t="b">
         <v>0</v>
       </c>
       <c r="M116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -6126,28 +6147,31 @@
         <v>128</v>
       </c>
       <c r="B117" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C117" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D117" t="s">
-        <v>437</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>472</v>
+        <v>443</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>471</v>
       </c>
       <c r="H117" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I117">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="J117" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K117" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L117" t="b">
         <v>0</v>
@@ -6161,31 +6185,31 @@
         <v>129</v>
       </c>
       <c r="B118" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C118" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D118" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="H118" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I118">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="J118" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K118" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L118" t="b">
         <v>0</v>
@@ -6199,37 +6223,37 @@
         <v>130</v>
       </c>
       <c r="B119" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C119" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D119" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="H119" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I119">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="J119" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K119" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L119" t="b">
         <v>0</v>
       </c>
       <c r="M119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -6237,31 +6261,31 @@
         <v>131</v>
       </c>
       <c r="B120" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C120" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D120" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="H120" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I120">
-        <v>1865</v>
+        <v>1859</v>
       </c>
       <c r="J120" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K120" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L120" t="b">
         <v>0</v>
@@ -6275,69 +6299,66 @@
         <v>132</v>
       </c>
       <c r="B121" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C121" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D121" t="s">
-        <v>436</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>484</v>
+        <v>444</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>480</v>
       </c>
       <c r="H121" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I121">
-        <v>1865</v>
+        <v>1860</v>
       </c>
       <c r="J121" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K121" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L121" t="b">
         <v>0</v>
       </c>
       <c r="M121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B122" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C122" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D122" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="H122" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I122">
-        <v>1865</v>
+        <v>1860</v>
       </c>
       <c r="J122" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K122" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L122" t="b">
         <v>0</v>
@@ -6348,34 +6369,34 @@
     </row>
     <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B123" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="C123" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D123" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="H123" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I123">
-        <v>1869</v>
+        <v>1861</v>
       </c>
       <c r="J123" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K123" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L123" t="b">
         <v>0</v>
@@ -6386,34 +6407,34 @@
     </row>
     <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B124" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="C124" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D124" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="H124" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I124">
-        <v>1870</v>
+        <v>1865</v>
       </c>
       <c r="J124" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K124" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L124" t="b">
         <v>0</v>
@@ -6424,34 +6445,34 @@
     </row>
     <row r="125" spans="1:13">
       <c r="A125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B125" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C125" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D125" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="H125" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I125">
-        <v>1875</v>
+        <v>1865</v>
       </c>
       <c r="J125" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K125" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L125" t="b">
         <v>0</v>
@@ -6465,31 +6486,31 @@
         <v>136</v>
       </c>
       <c r="B126" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C126" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D126" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>451</v>
+        <v>492</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>451</v>
+        <v>492</v>
       </c>
       <c r="H126" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I126">
-        <v>1879</v>
+        <v>1865</v>
       </c>
       <c r="J126" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K126" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L126" t="b">
         <v>0</v>
@@ -6503,25 +6524,31 @@
         <v>137</v>
       </c>
       <c r="B127" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="C127" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D127" t="s">
-        <v>439</v>
+        <v>443</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="H127" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I127">
-        <v>1879</v>
+        <v>1869</v>
       </c>
       <c r="J127" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K127" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L127" t="b">
         <v>0</v>
@@ -6535,31 +6562,31 @@
         <v>138</v>
       </c>
       <c r="B128" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C128" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D128" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="H128" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I128">
-        <v>1880</v>
+        <v>1870</v>
       </c>
       <c r="J128" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K128" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L128" t="b">
         <v>0</v>
@@ -6573,37 +6600,37 @@
         <v>139</v>
       </c>
       <c r="B129" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="C129" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D129" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="H129" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I129">
-        <v>1880</v>
+        <v>1875</v>
       </c>
       <c r="J129" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K129" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -6611,31 +6638,31 @@
         <v>140</v>
       </c>
       <c r="B130" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="C130" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D130" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="H130" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I130">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="J130" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K130" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L130" t="b">
         <v>0</v>
@@ -6649,31 +6676,25 @@
         <v>141</v>
       </c>
       <c r="B131" t="s">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c r="C131" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D131" t="s">
-        <v>436</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="H131" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I131">
-        <v>1886</v>
+        <v>1879</v>
       </c>
       <c r="J131" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K131" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L131" t="b">
         <v>0</v>
@@ -6687,31 +6708,31 @@
         <v>142</v>
       </c>
       <c r="B132" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="C132" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D132" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="H132" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I132">
-        <v>1887</v>
+        <v>1880</v>
       </c>
       <c r="J132" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K132" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L132" t="b">
         <v>0</v>
@@ -6725,31 +6746,37 @@
         <v>143</v>
       </c>
       <c r="B133" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="C133" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D133" t="s">
-        <v>439</v>
+        <v>443</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>462</v>
       </c>
       <c r="H133" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I133">
-        <v>1887</v>
+        <v>1880</v>
       </c>
       <c r="J133" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K133" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -6757,31 +6784,31 @@
         <v>144</v>
       </c>
       <c r="B134" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C134" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D134" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="H134" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I134">
-        <v>1890</v>
+        <v>1881</v>
       </c>
       <c r="J134" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K134" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L134" t="b">
         <v>0</v>
@@ -6795,31 +6822,31 @@
         <v>145</v>
       </c>
       <c r="B135" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C135" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D135" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="H135" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I135">
-        <v>1901</v>
+        <v>1886</v>
       </c>
       <c r="J135" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K135" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L135" t="b">
         <v>0</v>
@@ -6833,31 +6860,31 @@
         <v>146</v>
       </c>
       <c r="B136" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="C136" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D136" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="H136" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I136">
-        <v>1901</v>
+        <v>1887</v>
       </c>
       <c r="J136" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K136" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L136" t="b">
         <v>0</v>
@@ -6871,28 +6898,25 @@
         <v>147</v>
       </c>
       <c r="B137" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="C137" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D137" t="s">
-        <v>436</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>499</v>
+        <v>446</v>
       </c>
       <c r="H137" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I137">
-        <v>1901</v>
+        <v>1887</v>
       </c>
       <c r="J137" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K137" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L137" t="b">
         <v>0</v>
@@ -6906,28 +6930,31 @@
         <v>148</v>
       </c>
       <c r="B138" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="C138" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D138" t="s">
-        <v>436</v>
+        <v>443</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H138" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I138">
-        <v>1902</v>
+        <v>1890</v>
       </c>
       <c r="J138" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K138" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L138" t="b">
         <v>0</v>
@@ -6941,37 +6968,37 @@
         <v>149</v>
       </c>
       <c r="B139" t="s">
-        <v>261</v>
+        <v>207</v>
       </c>
       <c r="C139" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D139" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="H139" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I139">
-        <v>1907</v>
+        <v>1901</v>
       </c>
       <c r="J139" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K139" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L139" t="b">
         <v>0</v>
       </c>
       <c r="M139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6979,31 +7006,31 @@
         <v>150</v>
       </c>
       <c r="B140" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="C140" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D140" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="H140" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I140">
-        <v>1910</v>
+        <v>1901</v>
       </c>
       <c r="J140" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K140" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L140" t="b">
         <v>0</v>
@@ -7017,28 +7044,34 @@
         <v>151</v>
       </c>
       <c r="B141" t="s">
-        <v>263</v>
+        <v>207</v>
       </c>
       <c r="C141" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D141" t="s">
-        <v>439</v>
+        <v>443</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="H141" t="s">
+        <v>512</v>
       </c>
       <c r="I141">
-        <v>1915</v>
+        <v>1901</v>
       </c>
       <c r="J141" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K141" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L141" t="b">
         <v>0</v>
       </c>
       <c r="M141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -7046,28 +7079,34 @@
         <v>152</v>
       </c>
       <c r="B142" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C142" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D142" t="s">
-        <v>438</v>
+        <v>443</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="H142" t="s">
+        <v>512</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1902</v>
       </c>
       <c r="J142" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="K142" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L142" t="b">
         <v>0</v>
       </c>
       <c r="M142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -7075,22 +7114,31 @@
         <v>153</v>
       </c>
       <c r="B143" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C143" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D143" t="s">
-        <v>439</v>
+        <v>443</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H143" t="s">
+        <v>511</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1907</v>
       </c>
       <c r="J143" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="K143" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L143" t="b">
         <v>0</v>
@@ -7104,37 +7152,37 @@
         <v>154</v>
       </c>
       <c r="B144" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C144" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D144" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="H144" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I144">
-        <v>1663</v>
+        <v>1910</v>
       </c>
       <c r="J144" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="K144" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="L144" t="b">
         <v>0</v>
       </c>
       <c r="M144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -7142,37 +7190,28 @@
         <v>155</v>
       </c>
       <c r="B145" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C145" t="s">
-        <v>301</v>
+        <v>421</v>
       </c>
       <c r="D145" t="s">
-        <v>436</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="H145" t="s">
-        <v>503</v>
+        <v>446</v>
       </c>
       <c r="I145">
-        <v>1746</v>
+        <v>1915</v>
       </c>
       <c r="J145" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K145" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="L145" t="b">
         <v>0</v>
       </c>
       <c r="M145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -7180,34 +7219,28 @@
         <v>156</v>
       </c>
       <c r="B146" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C146" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D146" t="s">
-        <v>437</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="H146" t="s">
-        <v>503</v>
+        <v>445</v>
       </c>
       <c r="I146">
-        <v>1823</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="K146" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="L146" t="b">
         <v>0</v>
       </c>
       <c r="M146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -7215,34 +7248,28 @@
         <v>157</v>
       </c>
       <c r="B147" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C147" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
       <c r="D147" t="s">
-        <v>437</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="H147" t="s">
-        <v>502</v>
+        <v>446</v>
       </c>
       <c r="I147">
-        <v>1831</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="K147" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="L147" t="b">
         <v>0</v>
       </c>
       <c r="M147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -7250,37 +7277,37 @@
         <v>158</v>
       </c>
       <c r="B148" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C148" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="D148" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="H148" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I148">
-        <v>1870</v>
+        <v>1663</v>
       </c>
       <c r="J148" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="K148" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="L148" t="b">
         <v>0</v>
       </c>
       <c r="M148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -7288,34 +7315,37 @@
         <v>159</v>
       </c>
       <c r="B149" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C149" t="s">
-        <v>420</v>
+        <v>308</v>
       </c>
       <c r="D149" t="s">
-        <v>437</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>472</v>
+        <v>443</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>462</v>
       </c>
       <c r="H149" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I149">
-        <v>1760</v>
+        <v>1746</v>
       </c>
       <c r="J149" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="K149" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="L149" t="b">
         <v>0</v>
       </c>
       <c r="M149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -7323,34 +7353,34 @@
         <v>160</v>
       </c>
       <c r="B150" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C150" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D150" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H150" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I150">
-        <v>1780</v>
+        <v>1823</v>
       </c>
       <c r="J150" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="K150" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="L150" t="b">
         <v>0</v>
       </c>
       <c r="M150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -7358,34 +7388,34 @@
         <v>161</v>
       </c>
       <c r="B151" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C151" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="D151" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="H151" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I151">
-        <v>1814</v>
+        <v>1831</v>
       </c>
       <c r="J151" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="K151" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="L151" t="b">
         <v>0</v>
       </c>
       <c r="M151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -7393,31 +7423,31 @@
         <v>162</v>
       </c>
       <c r="B152" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C152" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D152" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="H152" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I152">
         <v>1870</v>
       </c>
       <c r="J152" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="K152" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="L152" t="b">
         <v>0</v>
@@ -7431,31 +7461,28 @@
         <v>163</v>
       </c>
       <c r="B153" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C153" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D153" t="s">
-        <v>436</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>490</v>
+        <v>444</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>480</v>
       </c>
       <c r="H153" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I153">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="J153" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="K153" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="L153" t="b">
         <v>0</v>
@@ -7469,37 +7496,34 @@
         <v>164</v>
       </c>
       <c r="B154" t="s">
-        <v>185</v>
+        <v>276</v>
       </c>
       <c r="C154" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D154" t="s">
-        <v>436</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>470</v>
+        <v>444</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>480</v>
       </c>
       <c r="H154" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I154">
-        <v>1760</v>
+        <v>1780</v>
       </c>
       <c r="J154" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="K154" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="L154" t="b">
         <v>0</v>
       </c>
       <c r="M154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -7507,34 +7531,34 @@
         <v>165</v>
       </c>
       <c r="B155" t="s">
-        <v>200</v>
+        <v>277</v>
       </c>
       <c r="C155" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="D155" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H155" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I155">
-        <v>1761</v>
+        <v>1814</v>
       </c>
       <c r="J155" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="K155" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="L155" t="b">
         <v>0</v>
       </c>
       <c r="M155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -7542,28 +7566,37 @@
         <v>166</v>
       </c>
       <c r="B156" t="s">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="C156" t="s">
-        <v>293</v>
+        <v>429</v>
       </c>
       <c r="D156" t="s">
-        <v>439</v>
+        <v>443</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="H156" t="s">
+        <v>511</v>
       </c>
       <c r="I156">
-        <v>1761</v>
+        <v>1870</v>
       </c>
       <c r="J156" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="K156" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="L156" t="b">
         <v>0</v>
       </c>
       <c r="M156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -7571,28 +7604,37 @@
         <v>167</v>
       </c>
       <c r="B157" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C157" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="D157" t="s">
-        <v>439</v>
+        <v>443</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H157" t="s">
+        <v>511</v>
       </c>
       <c r="I157">
-        <v>1667</v>
+        <v>1758</v>
       </c>
       <c r="J157" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K157" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="L157" t="b">
         <v>0</v>
       </c>
       <c r="M157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -7600,37 +7642,37 @@
         <v>168</v>
       </c>
       <c r="B158" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="C158" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D158" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="H158" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I158">
-        <v>1669</v>
+        <v>1760</v>
       </c>
       <c r="J158" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K158" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L158" t="b">
         <v>0</v>
       </c>
       <c r="M158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -7638,37 +7680,34 @@
         <v>169</v>
       </c>
       <c r="B159" t="s">
-        <v>276</v>
+        <v>205</v>
       </c>
       <c r="C159" t="s">
-        <v>427</v>
+        <v>368</v>
       </c>
       <c r="D159" t="s">
-        <v>436</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>491</v>
+        <v>445</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>487</v>
       </c>
       <c r="H159" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I159">
-        <v>1725</v>
+        <v>1761</v>
       </c>
       <c r="J159" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K159" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L159" t="b">
         <v>0</v>
       </c>
       <c r="M159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7676,31 +7715,22 @@
         <v>170</v>
       </c>
       <c r="B160" t="s">
-        <v>277</v>
+        <v>205</v>
       </c>
       <c r="C160" t="s">
-        <v>428</v>
+        <v>298</v>
       </c>
       <c r="D160" t="s">
-        <v>436</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="H160" t="s">
-        <v>502</v>
+        <v>446</v>
       </c>
       <c r="I160">
-        <v>1720</v>
+        <v>1761</v>
       </c>
       <c r="J160" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K160" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L160" t="b">
         <v>0</v>
@@ -7714,31 +7744,22 @@
         <v>171</v>
       </c>
       <c r="B161" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C161" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="D161" t="s">
-        <v>436</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="H161" t="s">
-        <v>502</v>
+        <v>446</v>
       </c>
       <c r="I161">
-        <v>1658</v>
+        <v>1667</v>
       </c>
       <c r="J161" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K161" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="L161" t="b">
         <v>0</v>
@@ -7752,34 +7773,37 @@
         <v>172</v>
       </c>
       <c r="B162" t="s">
-        <v>35</v>
+        <v>237</v>
       </c>
       <c r="C162" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D162" t="s">
-        <v>436</v>
+        <v>443</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>462</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="H162" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I162">
-        <v>1827</v>
+        <v>1669</v>
       </c>
       <c r="J162" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K162" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L162" t="b">
         <v>0</v>
       </c>
       <c r="M162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -7787,37 +7811,37 @@
         <v>173</v>
       </c>
       <c r="B163" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C163" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D163" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="H163" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="I163">
-        <v>1654</v>
+        <v>1725</v>
       </c>
       <c r="J163" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K163" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L163" t="b">
         <v>0</v>
       </c>
       <c r="M163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7825,37 +7849,37 @@
         <v>174</v>
       </c>
       <c r="B164" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C164" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D164" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H164" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I164">
-        <v>1864</v>
+        <v>1720</v>
       </c>
       <c r="J164" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K164" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L164" t="b">
         <v>0</v>
       </c>
       <c r="M164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7863,31 +7887,31 @@
         <v>175</v>
       </c>
       <c r="B165" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C165" t="s">
-        <v>432</v>
+        <v>343</v>
       </c>
       <c r="D165" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="H165" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I165">
-        <v>1867</v>
+        <v>1658</v>
       </c>
       <c r="J165" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K165" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L165" t="b">
         <v>0</v>
@@ -7901,31 +7925,28 @@
         <v>176</v>
       </c>
       <c r="B166" t="s">
-        <v>282</v>
+        <v>39</v>
       </c>
       <c r="C166" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D166" t="s">
-        <v>436</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="H166" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I166">
-        <v>1872</v>
+        <v>1827</v>
       </c>
       <c r="J166" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K166" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L166" t="b">
         <v>0</v>
@@ -7939,31 +7960,31 @@
         <v>177</v>
       </c>
       <c r="B167" t="s">
-        <v>219</v>
+        <v>284</v>
       </c>
       <c r="C167" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D167" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="H167" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I167">
-        <v>1880</v>
+        <v>1654</v>
       </c>
       <c r="J167" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K167" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L167" t="b">
         <v>0</v>
@@ -7977,25 +7998,31 @@
         <v>178</v>
       </c>
       <c r="B168" t="s">
-        <v>197</v>
+        <v>285</v>
       </c>
       <c r="C168" t="s">
-        <v>339</v>
+        <v>438</v>
       </c>
       <c r="D168" t="s">
-        <v>439</v>
+        <v>443</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="H168" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I168">
-        <v>1668</v>
+        <v>1864</v>
       </c>
       <c r="J168" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K168" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L168" t="b">
         <v>0</v>
@@ -8009,28 +8036,31 @@
         <v>179</v>
       </c>
       <c r="B169" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C169" t="s">
-        <v>336</v>
+        <v>439</v>
       </c>
       <c r="D169" t="s">
-        <v>437</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>497</v>
+        <v>443</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="H169" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I169">
-        <v>1883</v>
+        <v>1867</v>
       </c>
       <c r="J169" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K169" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L169" t="b">
         <v>0</v>
@@ -8044,37 +8074,218 @@
         <v>180</v>
       </c>
       <c r="B170" t="s">
+        <v>287</v>
+      </c>
+      <c r="C170" t="s">
+        <v>440</v>
+      </c>
+      <c r="D170" t="s">
+        <v>443</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H170" t="s">
+        <v>512</v>
+      </c>
+      <c r="I170">
+        <v>1872</v>
+      </c>
+      <c r="J170" t="s">
+        <v>513</v>
+      </c>
+      <c r="K170" t="s">
+        <v>515</v>
+      </c>
+      <c r="L170" t="b">
+        <v>0</v>
+      </c>
+      <c r="M170" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13">
+      <c r="A171" t="s">
+        <v>181</v>
+      </c>
+      <c r="B171" t="s">
+        <v>224</v>
+      </c>
+      <c r="C171" t="s">
+        <v>441</v>
+      </c>
+      <c r="D171" t="s">
+        <v>443</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H171" t="s">
+        <v>512</v>
+      </c>
+      <c r="I171">
+        <v>1880</v>
+      </c>
+      <c r="J171" t="s">
+        <v>513</v>
+      </c>
+      <c r="K171" t="s">
+        <v>515</v>
+      </c>
+      <c r="L171" t="b">
+        <v>0</v>
+      </c>
+      <c r="M171" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13">
+      <c r="A172" t="s">
         <v>182</v>
       </c>
-      <c r="C170" t="s">
-        <v>435</v>
-      </c>
-      <c r="D170" t="s">
-        <v>436</v>
-      </c>
-      <c r="E170" s="2" t="s">
+      <c r="B172" t="s">
+        <v>200</v>
+      </c>
+      <c r="C172" t="s">
+        <v>346</v>
+      </c>
+      <c r="D172" t="s">
+        <v>446</v>
+      </c>
+      <c r="H172" t="s">
+        <v>511</v>
+      </c>
+      <c r="I172">
+        <v>1668</v>
+      </c>
+      <c r="J172" t="s">
+        <v>513</v>
+      </c>
+      <c r="K172" t="s">
+        <v>515</v>
+      </c>
+      <c r="L172" t="b">
+        <v>0</v>
+      </c>
+      <c r="M172" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13">
+      <c r="A173" t="s">
+        <v>183</v>
+      </c>
+      <c r="B173" t="s">
+        <v>288</v>
+      </c>
+      <c r="C173" t="s">
+        <v>343</v>
+      </c>
+      <c r="D173" t="s">
+        <v>444</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="H173" t="s">
+        <v>511</v>
+      </c>
+      <c r="I173">
+        <v>1883</v>
+      </c>
+      <c r="J173" t="s">
+        <v>513</v>
+      </c>
+      <c r="K173" t="s">
+        <v>515</v>
+      </c>
+      <c r="L173" t="b">
+        <v>0</v>
+      </c>
+      <c r="M173" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13">
+      <c r="A174" t="s">
+        <v>184</v>
+      </c>
+      <c r="B174" t="s">
+        <v>187</v>
+      </c>
+      <c r="C174" t="s">
         <v>442</v>
       </c>
-      <c r="G170" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="H170" t="s">
-        <v>502</v>
-      </c>
-      <c r="I170">
+      <c r="D174" t="s">
+        <v>443</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="H174" t="s">
+        <v>511</v>
+      </c>
+      <c r="I174">
         <v>1676</v>
       </c>
-      <c r="J170" t="s">
-        <v>504</v>
-      </c>
-      <c r="K170" t="s">
-        <v>506</v>
-      </c>
-      <c r="L170" t="b">
-        <v>0</v>
-      </c>
-      <c r="M170" t="b">
-        <v>0</v>
+      <c r="J174" t="s">
+        <v>513</v>
+      </c>
+      <c r="K174" t="s">
+        <v>515</v>
+      </c>
+      <c r="L174" t="b">
+        <v>0</v>
+      </c>
+      <c r="M174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13">
+      <c r="A175" t="s">
+        <v>185</v>
+      </c>
+      <c r="B175" t="s">
+        <v>222</v>
+      </c>
+      <c r="C175" t="s">
+        <v>304</v>
+      </c>
+      <c r="D175" t="s">
+        <v>443</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H175" t="s">
+        <v>511</v>
+      </c>
+      <c r="I175">
+        <v>1870</v>
+      </c>
+      <c r="J175" t="s">
+        <v>513</v>
+      </c>
+      <c r="K175" t="s">
+        <v>515</v>
+      </c>
+      <c r="L175" t="b">
+        <v>0</v>
+      </c>
+      <c r="M175" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8105,235 +8316,242 @@
     <hyperlink ref="G17" r:id="rId24"/>
     <hyperlink ref="E18" r:id="rId25"/>
     <hyperlink ref="G18" r:id="rId26"/>
-    <hyperlink ref="E19" r:id="rId27"/>
-    <hyperlink ref="G19" r:id="rId28"/>
-    <hyperlink ref="F20" r:id="rId29"/>
-    <hyperlink ref="F22" r:id="rId30"/>
-    <hyperlink ref="E26" r:id="rId31"/>
-    <hyperlink ref="G26" r:id="rId32"/>
-    <hyperlink ref="E27" r:id="rId33"/>
-    <hyperlink ref="G27" r:id="rId34"/>
-    <hyperlink ref="E28" r:id="rId35"/>
-    <hyperlink ref="G28" r:id="rId36"/>
-    <hyperlink ref="E29" r:id="rId37"/>
-    <hyperlink ref="G29" r:id="rId38"/>
-    <hyperlink ref="E31" r:id="rId39"/>
-    <hyperlink ref="G31" r:id="rId40"/>
-    <hyperlink ref="E32" r:id="rId41"/>
-    <hyperlink ref="G32" r:id="rId42"/>
-    <hyperlink ref="E33" r:id="rId43"/>
-    <hyperlink ref="G33" r:id="rId44"/>
-    <hyperlink ref="E34" r:id="rId45"/>
-    <hyperlink ref="G34" r:id="rId46"/>
-    <hyperlink ref="E35" r:id="rId47"/>
-    <hyperlink ref="G35" r:id="rId48"/>
-    <hyperlink ref="E36" r:id="rId49"/>
-    <hyperlink ref="G36" r:id="rId50"/>
-    <hyperlink ref="E38" r:id="rId51"/>
-    <hyperlink ref="G38" r:id="rId52"/>
-    <hyperlink ref="F39" r:id="rId53"/>
+    <hyperlink ref="F19" r:id="rId27"/>
+    <hyperlink ref="E20" r:id="rId28"/>
+    <hyperlink ref="G20" r:id="rId29"/>
+    <hyperlink ref="E21" r:id="rId30"/>
+    <hyperlink ref="G21" r:id="rId31"/>
+    <hyperlink ref="E22" r:id="rId32"/>
+    <hyperlink ref="G22" r:id="rId33"/>
+    <hyperlink ref="F24" r:id="rId34"/>
+    <hyperlink ref="F26" r:id="rId35"/>
+    <hyperlink ref="E30" r:id="rId36"/>
+    <hyperlink ref="G30" r:id="rId37"/>
+    <hyperlink ref="E31" r:id="rId38"/>
+    <hyperlink ref="G31" r:id="rId39"/>
+    <hyperlink ref="E32" r:id="rId40"/>
+    <hyperlink ref="G32" r:id="rId41"/>
+    <hyperlink ref="E33" r:id="rId42"/>
+    <hyperlink ref="G33" r:id="rId43"/>
+    <hyperlink ref="E35" r:id="rId44"/>
+    <hyperlink ref="G35" r:id="rId45"/>
+    <hyperlink ref="E36" r:id="rId46"/>
+    <hyperlink ref="G36" r:id="rId47"/>
+    <hyperlink ref="E37" r:id="rId48"/>
+    <hyperlink ref="G37" r:id="rId49"/>
+    <hyperlink ref="E38" r:id="rId50"/>
+    <hyperlink ref="G38" r:id="rId51"/>
+    <hyperlink ref="E39" r:id="rId52"/>
+    <hyperlink ref="G39" r:id="rId53"/>
     <hyperlink ref="E40" r:id="rId54"/>
     <hyperlink ref="G40" r:id="rId55"/>
-    <hyperlink ref="E41" r:id="rId56"/>
-    <hyperlink ref="G41" r:id="rId57"/>
-    <hyperlink ref="E42" r:id="rId58"/>
-    <hyperlink ref="G42" r:id="rId59"/>
-    <hyperlink ref="E43" r:id="rId60"/>
-    <hyperlink ref="G43" r:id="rId61"/>
-    <hyperlink ref="E44" r:id="rId62"/>
-    <hyperlink ref="G44" r:id="rId63"/>
-    <hyperlink ref="E45" r:id="rId64"/>
-    <hyperlink ref="G45" r:id="rId65"/>
-    <hyperlink ref="E46" r:id="rId66"/>
-    <hyperlink ref="G46" r:id="rId67"/>
-    <hyperlink ref="E47" r:id="rId68"/>
-    <hyperlink ref="G47" r:id="rId69"/>
-    <hyperlink ref="E48" r:id="rId70"/>
-    <hyperlink ref="G48" r:id="rId71"/>
-    <hyperlink ref="E49" r:id="rId72"/>
-    <hyperlink ref="G49" r:id="rId73"/>
-    <hyperlink ref="E50" r:id="rId74"/>
-    <hyperlink ref="G50" r:id="rId75"/>
-    <hyperlink ref="E52" r:id="rId76"/>
-    <hyperlink ref="G52" r:id="rId77"/>
-    <hyperlink ref="E53" r:id="rId78"/>
-    <hyperlink ref="G53" r:id="rId79"/>
-    <hyperlink ref="E54" r:id="rId80"/>
-    <hyperlink ref="G54" r:id="rId81"/>
-    <hyperlink ref="E56" r:id="rId82"/>
-    <hyperlink ref="G56" r:id="rId83"/>
-    <hyperlink ref="E59" r:id="rId84"/>
-    <hyperlink ref="G59" r:id="rId85"/>
-    <hyperlink ref="F61" r:id="rId86"/>
-    <hyperlink ref="E62" r:id="rId87"/>
-    <hyperlink ref="G62" r:id="rId88"/>
-    <hyperlink ref="E66" r:id="rId89"/>
-    <hyperlink ref="G66" r:id="rId90"/>
-    <hyperlink ref="E70" r:id="rId91"/>
-    <hyperlink ref="G70" r:id="rId92"/>
-    <hyperlink ref="E72" r:id="rId93"/>
-    <hyperlink ref="G72" r:id="rId94"/>
-    <hyperlink ref="E73" r:id="rId95"/>
-    <hyperlink ref="G73" r:id="rId96"/>
-    <hyperlink ref="E74" r:id="rId97"/>
-    <hyperlink ref="G74" r:id="rId98"/>
-    <hyperlink ref="E75" r:id="rId99"/>
-    <hyperlink ref="G75" r:id="rId100"/>
-    <hyperlink ref="E76" r:id="rId101"/>
-    <hyperlink ref="G76" r:id="rId102"/>
-    <hyperlink ref="E77" r:id="rId103"/>
-    <hyperlink ref="G77" r:id="rId104"/>
-    <hyperlink ref="E78" r:id="rId105"/>
-    <hyperlink ref="G78" r:id="rId106"/>
-    <hyperlink ref="E79" r:id="rId107"/>
-    <hyperlink ref="G79" r:id="rId108"/>
-    <hyperlink ref="E80" r:id="rId109"/>
-    <hyperlink ref="G80" r:id="rId110"/>
-    <hyperlink ref="E82" r:id="rId111"/>
-    <hyperlink ref="G82" r:id="rId112"/>
-    <hyperlink ref="E84" r:id="rId113"/>
-    <hyperlink ref="G84" r:id="rId114"/>
-    <hyperlink ref="E85" r:id="rId115"/>
-    <hyperlink ref="G85" r:id="rId116"/>
-    <hyperlink ref="F87" r:id="rId117"/>
-    <hyperlink ref="F88" r:id="rId118"/>
-    <hyperlink ref="E89" r:id="rId119"/>
-    <hyperlink ref="G89" r:id="rId120"/>
-    <hyperlink ref="E90" r:id="rId121"/>
-    <hyperlink ref="G90" r:id="rId122"/>
-    <hyperlink ref="E91" r:id="rId123"/>
-    <hyperlink ref="G91" r:id="rId124"/>
-    <hyperlink ref="E92" r:id="rId125"/>
-    <hyperlink ref="G92" r:id="rId126"/>
-    <hyperlink ref="E93" r:id="rId127"/>
-    <hyperlink ref="G93" r:id="rId128"/>
-    <hyperlink ref="E94" r:id="rId129"/>
-    <hyperlink ref="G94" r:id="rId130"/>
-    <hyperlink ref="E95" r:id="rId131"/>
-    <hyperlink ref="G95" r:id="rId132"/>
-    <hyperlink ref="E96" r:id="rId133"/>
-    <hyperlink ref="G96" r:id="rId134"/>
-    <hyperlink ref="E97" r:id="rId135"/>
-    <hyperlink ref="G97" r:id="rId136"/>
-    <hyperlink ref="E98" r:id="rId137"/>
-    <hyperlink ref="G98" r:id="rId138"/>
-    <hyperlink ref="E99" r:id="rId139"/>
-    <hyperlink ref="G99" r:id="rId140"/>
-    <hyperlink ref="E100" r:id="rId141"/>
-    <hyperlink ref="G100" r:id="rId142"/>
-    <hyperlink ref="E101" r:id="rId143"/>
-    <hyperlink ref="G101" r:id="rId144"/>
-    <hyperlink ref="E102" r:id="rId145"/>
-    <hyperlink ref="G102" r:id="rId146"/>
-    <hyperlink ref="E103" r:id="rId147"/>
-    <hyperlink ref="G103" r:id="rId148"/>
-    <hyperlink ref="E104" r:id="rId149"/>
-    <hyperlink ref="G104" r:id="rId150"/>
-    <hyperlink ref="E105" r:id="rId151"/>
-    <hyperlink ref="G105" r:id="rId152"/>
-    <hyperlink ref="E106" r:id="rId153"/>
-    <hyperlink ref="G106" r:id="rId154"/>
-    <hyperlink ref="E107" r:id="rId155"/>
-    <hyperlink ref="G107" r:id="rId156"/>
-    <hyperlink ref="E108" r:id="rId157"/>
-    <hyperlink ref="G108" r:id="rId158"/>
-    <hyperlink ref="E109" r:id="rId159"/>
-    <hyperlink ref="G109" r:id="rId160"/>
-    <hyperlink ref="E110" r:id="rId161"/>
-    <hyperlink ref="G110" r:id="rId162"/>
-    <hyperlink ref="E111" r:id="rId163"/>
-    <hyperlink ref="G111" r:id="rId164"/>
-    <hyperlink ref="E112" r:id="rId165"/>
-    <hyperlink ref="G112" r:id="rId166"/>
-    <hyperlink ref="E113" r:id="rId167"/>
-    <hyperlink ref="G113" r:id="rId168"/>
-    <hyperlink ref="E114" r:id="rId169"/>
-    <hyperlink ref="G114" r:id="rId170"/>
-    <hyperlink ref="E115" r:id="rId171"/>
-    <hyperlink ref="G115" r:id="rId172"/>
-    <hyperlink ref="E116" r:id="rId173"/>
-    <hyperlink ref="G116" r:id="rId174"/>
-    <hyperlink ref="F117" r:id="rId175"/>
-    <hyperlink ref="E118" r:id="rId176"/>
-    <hyperlink ref="G118" r:id="rId177"/>
-    <hyperlink ref="E119" r:id="rId178"/>
-    <hyperlink ref="G119" r:id="rId179"/>
-    <hyperlink ref="E120" r:id="rId180"/>
-    <hyperlink ref="G120" r:id="rId181"/>
-    <hyperlink ref="E121" r:id="rId182"/>
-    <hyperlink ref="G121" r:id="rId183"/>
-    <hyperlink ref="E122" r:id="rId184"/>
-    <hyperlink ref="G122" r:id="rId185"/>
-    <hyperlink ref="E123" r:id="rId186"/>
-    <hyperlink ref="G123" r:id="rId187"/>
-    <hyperlink ref="E124" r:id="rId188"/>
-    <hyperlink ref="G124" r:id="rId189"/>
-    <hyperlink ref="E125" r:id="rId190"/>
-    <hyperlink ref="G125" r:id="rId191"/>
-    <hyperlink ref="E126" r:id="rId192"/>
-    <hyperlink ref="G126" r:id="rId193"/>
-    <hyperlink ref="E128" r:id="rId194"/>
-    <hyperlink ref="G128" r:id="rId195"/>
-    <hyperlink ref="E129" r:id="rId196"/>
-    <hyperlink ref="G129" r:id="rId197"/>
-    <hyperlink ref="E130" r:id="rId198"/>
-    <hyperlink ref="G130" r:id="rId199"/>
-    <hyperlink ref="E131" r:id="rId200"/>
-    <hyperlink ref="G131" r:id="rId201"/>
-    <hyperlink ref="E132" r:id="rId202"/>
-    <hyperlink ref="G132" r:id="rId203"/>
-    <hyperlink ref="E134" r:id="rId204"/>
-    <hyperlink ref="G134" r:id="rId205"/>
-    <hyperlink ref="E135" r:id="rId206"/>
-    <hyperlink ref="G135" r:id="rId207"/>
-    <hyperlink ref="E136" r:id="rId208"/>
-    <hyperlink ref="G136" r:id="rId209"/>
-    <hyperlink ref="G137" r:id="rId210"/>
-    <hyperlink ref="G138" r:id="rId211"/>
-    <hyperlink ref="E139" r:id="rId212"/>
-    <hyperlink ref="G139" r:id="rId213"/>
-    <hyperlink ref="E140" r:id="rId214"/>
-    <hyperlink ref="G140" r:id="rId215"/>
-    <hyperlink ref="E144" r:id="rId216"/>
-    <hyperlink ref="G144" r:id="rId217"/>
-    <hyperlink ref="E145" r:id="rId218"/>
-    <hyperlink ref="G145" r:id="rId219"/>
-    <hyperlink ref="F146" r:id="rId220"/>
-    <hyperlink ref="F147" r:id="rId221"/>
-    <hyperlink ref="E148" r:id="rId222"/>
-    <hyperlink ref="G148" r:id="rId223"/>
-    <hyperlink ref="F149" r:id="rId224"/>
+    <hyperlink ref="E42" r:id="rId56"/>
+    <hyperlink ref="G42" r:id="rId57"/>
+    <hyperlink ref="F43" r:id="rId58"/>
+    <hyperlink ref="E44" r:id="rId59"/>
+    <hyperlink ref="G44" r:id="rId60"/>
+    <hyperlink ref="E45" r:id="rId61"/>
+    <hyperlink ref="G45" r:id="rId62"/>
+    <hyperlink ref="E46" r:id="rId63"/>
+    <hyperlink ref="G46" r:id="rId64"/>
+    <hyperlink ref="E47" r:id="rId65"/>
+    <hyperlink ref="G47" r:id="rId66"/>
+    <hyperlink ref="E48" r:id="rId67"/>
+    <hyperlink ref="G48" r:id="rId68"/>
+    <hyperlink ref="E49" r:id="rId69"/>
+    <hyperlink ref="G49" r:id="rId70"/>
+    <hyperlink ref="E50" r:id="rId71"/>
+    <hyperlink ref="G50" r:id="rId72"/>
+    <hyperlink ref="E51" r:id="rId73"/>
+    <hyperlink ref="G51" r:id="rId74"/>
+    <hyperlink ref="E52" r:id="rId75"/>
+    <hyperlink ref="G52" r:id="rId76"/>
+    <hyperlink ref="E53" r:id="rId77"/>
+    <hyperlink ref="G53" r:id="rId78"/>
+    <hyperlink ref="E54" r:id="rId79"/>
+    <hyperlink ref="G54" r:id="rId80"/>
+    <hyperlink ref="E56" r:id="rId81"/>
+    <hyperlink ref="G56" r:id="rId82"/>
+    <hyperlink ref="E57" r:id="rId83"/>
+    <hyperlink ref="G57" r:id="rId84"/>
+    <hyperlink ref="E58" r:id="rId85"/>
+    <hyperlink ref="G58" r:id="rId86"/>
+    <hyperlink ref="E60" r:id="rId87"/>
+    <hyperlink ref="G60" r:id="rId88"/>
+    <hyperlink ref="E63" r:id="rId89"/>
+    <hyperlink ref="G63" r:id="rId90"/>
+    <hyperlink ref="F65" r:id="rId91"/>
+    <hyperlink ref="E66" r:id="rId92"/>
+    <hyperlink ref="G66" r:id="rId93"/>
+    <hyperlink ref="E70" r:id="rId94"/>
+    <hyperlink ref="G70" r:id="rId95"/>
+    <hyperlink ref="E74" r:id="rId96"/>
+    <hyperlink ref="G74" r:id="rId97"/>
+    <hyperlink ref="E76" r:id="rId98"/>
+    <hyperlink ref="G76" r:id="rId99"/>
+    <hyperlink ref="E77" r:id="rId100"/>
+    <hyperlink ref="G77" r:id="rId101"/>
+    <hyperlink ref="E78" r:id="rId102"/>
+    <hyperlink ref="G78" r:id="rId103"/>
+    <hyperlink ref="E79" r:id="rId104"/>
+    <hyperlink ref="G79" r:id="rId105"/>
+    <hyperlink ref="E80" r:id="rId106"/>
+    <hyperlink ref="G80" r:id="rId107"/>
+    <hyperlink ref="E81" r:id="rId108"/>
+    <hyperlink ref="G81" r:id="rId109"/>
+    <hyperlink ref="E82" r:id="rId110"/>
+    <hyperlink ref="G82" r:id="rId111"/>
+    <hyperlink ref="E83" r:id="rId112"/>
+    <hyperlink ref="G83" r:id="rId113"/>
+    <hyperlink ref="E84" r:id="rId114"/>
+    <hyperlink ref="G84" r:id="rId115"/>
+    <hyperlink ref="E86" r:id="rId116"/>
+    <hyperlink ref="G86" r:id="rId117"/>
+    <hyperlink ref="E88" r:id="rId118"/>
+    <hyperlink ref="G88" r:id="rId119"/>
+    <hyperlink ref="E89" r:id="rId120"/>
+    <hyperlink ref="G89" r:id="rId121"/>
+    <hyperlink ref="F91" r:id="rId122"/>
+    <hyperlink ref="F92" r:id="rId123"/>
+    <hyperlink ref="E93" r:id="rId124"/>
+    <hyperlink ref="G93" r:id="rId125"/>
+    <hyperlink ref="E94" r:id="rId126"/>
+    <hyperlink ref="G94" r:id="rId127"/>
+    <hyperlink ref="E95" r:id="rId128"/>
+    <hyperlink ref="G95" r:id="rId129"/>
+    <hyperlink ref="E96" r:id="rId130"/>
+    <hyperlink ref="G96" r:id="rId131"/>
+    <hyperlink ref="E97" r:id="rId132"/>
+    <hyperlink ref="G97" r:id="rId133"/>
+    <hyperlink ref="E98" r:id="rId134"/>
+    <hyperlink ref="G98" r:id="rId135"/>
+    <hyperlink ref="E99" r:id="rId136"/>
+    <hyperlink ref="G99" r:id="rId137"/>
+    <hyperlink ref="E100" r:id="rId138"/>
+    <hyperlink ref="G100" r:id="rId139"/>
+    <hyperlink ref="E101" r:id="rId140"/>
+    <hyperlink ref="G101" r:id="rId141"/>
+    <hyperlink ref="E102" r:id="rId142"/>
+    <hyperlink ref="G102" r:id="rId143"/>
+    <hyperlink ref="E103" r:id="rId144"/>
+    <hyperlink ref="G103" r:id="rId145"/>
+    <hyperlink ref="E104" r:id="rId146"/>
+    <hyperlink ref="G104" r:id="rId147"/>
+    <hyperlink ref="E105" r:id="rId148"/>
+    <hyperlink ref="G105" r:id="rId149"/>
+    <hyperlink ref="E106" r:id="rId150"/>
+    <hyperlink ref="G106" r:id="rId151"/>
+    <hyperlink ref="E107" r:id="rId152"/>
+    <hyperlink ref="G107" r:id="rId153"/>
+    <hyperlink ref="E108" r:id="rId154"/>
+    <hyperlink ref="G108" r:id="rId155"/>
+    <hyperlink ref="E109" r:id="rId156"/>
+    <hyperlink ref="G109" r:id="rId157"/>
+    <hyperlink ref="E110" r:id="rId158"/>
+    <hyperlink ref="G110" r:id="rId159"/>
+    <hyperlink ref="E111" r:id="rId160"/>
+    <hyperlink ref="G111" r:id="rId161"/>
+    <hyperlink ref="E112" r:id="rId162"/>
+    <hyperlink ref="G112" r:id="rId163"/>
+    <hyperlink ref="E113" r:id="rId164"/>
+    <hyperlink ref="G113" r:id="rId165"/>
+    <hyperlink ref="E114" r:id="rId166"/>
+    <hyperlink ref="G114" r:id="rId167"/>
+    <hyperlink ref="E115" r:id="rId168"/>
+    <hyperlink ref="G115" r:id="rId169"/>
+    <hyperlink ref="E116" r:id="rId170"/>
+    <hyperlink ref="G116" r:id="rId171"/>
+    <hyperlink ref="E117" r:id="rId172"/>
+    <hyperlink ref="G117" r:id="rId173"/>
+    <hyperlink ref="E118" r:id="rId174"/>
+    <hyperlink ref="G118" r:id="rId175"/>
+    <hyperlink ref="E119" r:id="rId176"/>
+    <hyperlink ref="G119" r:id="rId177"/>
+    <hyperlink ref="E120" r:id="rId178"/>
+    <hyperlink ref="G120" r:id="rId179"/>
+    <hyperlink ref="F121" r:id="rId180"/>
+    <hyperlink ref="E122" r:id="rId181"/>
+    <hyperlink ref="G122" r:id="rId182"/>
+    <hyperlink ref="E123" r:id="rId183"/>
+    <hyperlink ref="G123" r:id="rId184"/>
+    <hyperlink ref="E124" r:id="rId185"/>
+    <hyperlink ref="G124" r:id="rId186"/>
+    <hyperlink ref="E125" r:id="rId187"/>
+    <hyperlink ref="G125" r:id="rId188"/>
+    <hyperlink ref="E126" r:id="rId189"/>
+    <hyperlink ref="G126" r:id="rId190"/>
+    <hyperlink ref="E127" r:id="rId191"/>
+    <hyperlink ref="G127" r:id="rId192"/>
+    <hyperlink ref="E128" r:id="rId193"/>
+    <hyperlink ref="G128" r:id="rId194"/>
+    <hyperlink ref="E129" r:id="rId195"/>
+    <hyperlink ref="G129" r:id="rId196"/>
+    <hyperlink ref="E130" r:id="rId197"/>
+    <hyperlink ref="G130" r:id="rId198"/>
+    <hyperlink ref="E132" r:id="rId199"/>
+    <hyperlink ref="G132" r:id="rId200"/>
+    <hyperlink ref="E133" r:id="rId201"/>
+    <hyperlink ref="G133" r:id="rId202"/>
+    <hyperlink ref="E134" r:id="rId203"/>
+    <hyperlink ref="G134" r:id="rId204"/>
+    <hyperlink ref="E135" r:id="rId205"/>
+    <hyperlink ref="G135" r:id="rId206"/>
+    <hyperlink ref="E136" r:id="rId207"/>
+    <hyperlink ref="G136" r:id="rId208"/>
+    <hyperlink ref="E138" r:id="rId209"/>
+    <hyperlink ref="G138" r:id="rId210"/>
+    <hyperlink ref="E139" r:id="rId211"/>
+    <hyperlink ref="G139" r:id="rId212"/>
+    <hyperlink ref="E140" r:id="rId213"/>
+    <hyperlink ref="G140" r:id="rId214"/>
+    <hyperlink ref="G141" r:id="rId215"/>
+    <hyperlink ref="G142" r:id="rId216"/>
+    <hyperlink ref="E143" r:id="rId217"/>
+    <hyperlink ref="G143" r:id="rId218"/>
+    <hyperlink ref="E144" r:id="rId219"/>
+    <hyperlink ref="G144" r:id="rId220"/>
+    <hyperlink ref="E148" r:id="rId221"/>
+    <hyperlink ref="G148" r:id="rId222"/>
+    <hyperlink ref="E149" r:id="rId223"/>
+    <hyperlink ref="G149" r:id="rId224"/>
     <hyperlink ref="F150" r:id="rId225"/>
     <hyperlink ref="F151" r:id="rId226"/>
     <hyperlink ref="E152" r:id="rId227"/>
     <hyperlink ref="G152" r:id="rId228"/>
-    <hyperlink ref="E153" r:id="rId229"/>
-    <hyperlink ref="G153" r:id="rId230"/>
-    <hyperlink ref="E154" r:id="rId231"/>
-    <hyperlink ref="G154" r:id="rId232"/>
-    <hyperlink ref="F155" r:id="rId233"/>
-    <hyperlink ref="E158" r:id="rId234"/>
-    <hyperlink ref="G158" r:id="rId235"/>
-    <hyperlink ref="E159" r:id="rId236"/>
-    <hyperlink ref="G159" r:id="rId237"/>
-    <hyperlink ref="E160" r:id="rId238"/>
-    <hyperlink ref="G160" r:id="rId239"/>
-    <hyperlink ref="E161" r:id="rId240"/>
-    <hyperlink ref="G161" r:id="rId241"/>
-    <hyperlink ref="G162" r:id="rId242"/>
-    <hyperlink ref="E163" r:id="rId243"/>
-    <hyperlink ref="G163" r:id="rId244"/>
-    <hyperlink ref="E164" r:id="rId245"/>
-    <hyperlink ref="G164" r:id="rId246"/>
-    <hyperlink ref="E165" r:id="rId247"/>
-    <hyperlink ref="G165" r:id="rId248"/>
-    <hyperlink ref="E166" r:id="rId249"/>
-    <hyperlink ref="G166" r:id="rId250"/>
-    <hyperlink ref="E167" r:id="rId251"/>
-    <hyperlink ref="G167" r:id="rId252"/>
-    <hyperlink ref="F169" r:id="rId253"/>
+    <hyperlink ref="F153" r:id="rId229"/>
+    <hyperlink ref="F154" r:id="rId230"/>
+    <hyperlink ref="F155" r:id="rId231"/>
+    <hyperlink ref="E156" r:id="rId232"/>
+    <hyperlink ref="G156" r:id="rId233"/>
+    <hyperlink ref="E157" r:id="rId234"/>
+    <hyperlink ref="G157" r:id="rId235"/>
+    <hyperlink ref="E158" r:id="rId236"/>
+    <hyperlink ref="G158" r:id="rId237"/>
+    <hyperlink ref="F159" r:id="rId238"/>
+    <hyperlink ref="E162" r:id="rId239"/>
+    <hyperlink ref="G162" r:id="rId240"/>
+    <hyperlink ref="E163" r:id="rId241"/>
+    <hyperlink ref="G163" r:id="rId242"/>
+    <hyperlink ref="E164" r:id="rId243"/>
+    <hyperlink ref="G164" r:id="rId244"/>
+    <hyperlink ref="E165" r:id="rId245"/>
+    <hyperlink ref="G165" r:id="rId246"/>
+    <hyperlink ref="G166" r:id="rId247"/>
+    <hyperlink ref="E167" r:id="rId248"/>
+    <hyperlink ref="G167" r:id="rId249"/>
+    <hyperlink ref="E168" r:id="rId250"/>
+    <hyperlink ref="G168" r:id="rId251"/>
+    <hyperlink ref="E169" r:id="rId252"/>
+    <hyperlink ref="G169" r:id="rId253"/>
     <hyperlink ref="E170" r:id="rId254"/>
     <hyperlink ref="G170" r:id="rId255"/>
+    <hyperlink ref="E171" r:id="rId256"/>
+    <hyperlink ref="G171" r:id="rId257"/>
+    <hyperlink ref="F173" r:id="rId258"/>
+    <hyperlink ref="E174" r:id="rId259"/>
+    <hyperlink ref="G174" r:id="rId260"/>
+    <hyperlink ref="E175" r:id="rId261"/>
+    <hyperlink ref="G175" r:id="rId262"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
